--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col9a3-Mag.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col9a3-Mag.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8355940000000001</v>
+        <v>1.182581</v>
       </c>
       <c r="H2">
-        <v>2.506782</v>
+        <v>3.547743</v>
       </c>
       <c r="I2">
-        <v>0.1751713572229984</v>
+        <v>0.2630888587664436</v>
       </c>
       <c r="J2">
-        <v>0.1751713572229984</v>
+        <v>0.2630888587664436</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4679556666666667</v>
+        <v>0.8180823333333334</v>
       </c>
       <c r="N2">
-        <v>1.403867</v>
+        <v>2.454247</v>
       </c>
       <c r="O2">
-        <v>0.5989702197413518</v>
+        <v>0.5115352725808422</v>
       </c>
       <c r="P2">
-        <v>0.5989702197413518</v>
+        <v>0.5115352725808422</v>
       </c>
       <c r="Q2">
-        <v>0.3910209473326667</v>
+        <v>0.9674486238356668</v>
       </c>
       <c r="R2">
-        <v>3.519188525994001</v>
+        <v>8.707037614521001</v>
       </c>
       <c r="S2">
-        <v>0.1049224263282502</v>
+        <v>0.1345792310820754</v>
       </c>
       <c r="T2">
-        <v>0.1049224263282502</v>
+        <v>0.1345792310820754</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8355940000000001</v>
+        <v>1.182581</v>
       </c>
       <c r="H3">
-        <v>2.506782</v>
+        <v>3.547743</v>
       </c>
       <c r="I3">
-        <v>0.1751713572229984</v>
+        <v>0.2630888587664436</v>
       </c>
       <c r="J3">
-        <v>0.1751713572229984</v>
+        <v>0.2630888587664436</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.3133113333333333</v>
+        <v>0.7811863333333333</v>
       </c>
       <c r="N3">
-        <v>0.939934</v>
+        <v>2.343559</v>
       </c>
       <c r="O3">
-        <v>0.4010297802586483</v>
+        <v>0.4884647274191578</v>
       </c>
       <c r="P3">
-        <v>0.4010297802586483</v>
+        <v>0.4884647274191579</v>
       </c>
       <c r="Q3">
-        <v>0.2618010702653333</v>
+        <v>0.9238161152596668</v>
       </c>
       <c r="R3">
-        <v>2.356209632388</v>
+        <v>8.314345037337</v>
       </c>
       <c r="S3">
-        <v>0.07024893089474822</v>
+        <v>0.1285096276843682</v>
       </c>
       <c r="T3">
-        <v>0.07024893089474822</v>
+        <v>0.1285096276843682</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,40 +667,40 @@
         <v>6.925705</v>
       </c>
       <c r="I4">
-        <v>0.4839611679739625</v>
+        <v>0.513587321461293</v>
       </c>
       <c r="J4">
-        <v>0.4839611679739625</v>
+        <v>0.5135873214612932</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4679556666666667</v>
+        <v>0.8180823333333334</v>
       </c>
       <c r="N4">
-        <v>1.403867</v>
+        <v>2.454247</v>
       </c>
       <c r="O4">
-        <v>0.5989702197413518</v>
+        <v>0.5115352725808422</v>
       </c>
       <c r="P4">
-        <v>0.5989702197413518</v>
+        <v>0.5115352725808422</v>
       </c>
       <c r="Q4">
-        <v>1.080307633470555</v>
+        <v>1.888598968792778</v>
       </c>
       <c r="R4">
-        <v>9.722768701234999</v>
+        <v>16.997390719135</v>
       </c>
       <c r="S4">
-        <v>0.2898783271276456</v>
+        <v>0.2627180304777672</v>
       </c>
       <c r="T4">
-        <v>0.2898783271276456</v>
+        <v>0.2627180304777672</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>6.925705</v>
       </c>
       <c r="I5">
-        <v>0.4839611679739625</v>
+        <v>0.513587321461293</v>
       </c>
       <c r="J5">
-        <v>0.4839611679739625</v>
+        <v>0.5135873214612932</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3133113333333333</v>
+        <v>0.7811863333333333</v>
       </c>
       <c r="N5">
-        <v>0.939934</v>
+        <v>2.343559</v>
       </c>
       <c r="O5">
-        <v>0.4010297802586483</v>
+        <v>0.4884647274191578</v>
       </c>
       <c r="P5">
-        <v>0.4010297802586483</v>
+        <v>0.4884647274191579</v>
       </c>
       <c r="Q5">
-        <v>0.7233006226077777</v>
+        <v>1.803422031566111</v>
       </c>
       <c r="R5">
-        <v>6.50970560347</v>
+        <v>16.230798284095</v>
       </c>
       <c r="S5">
-        <v>0.194082840846317</v>
+        <v>0.2508692909835259</v>
       </c>
       <c r="T5">
-        <v>0.1940828408463169</v>
+        <v>0.2508692909835259</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.6705973333333333</v>
+        <v>0.7305033333333334</v>
       </c>
       <c r="H6">
-        <v>2.011792</v>
+        <v>2.19151</v>
       </c>
       <c r="I6">
-        <v>0.1405819632861455</v>
+        <v>0.1625151159132014</v>
       </c>
       <c r="J6">
-        <v>0.1405819632861454</v>
+        <v>0.1625151159132014</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4679556666666667</v>
+        <v>0.8180823333333334</v>
       </c>
       <c r="N6">
-        <v>1.403867</v>
+        <v>2.454247</v>
       </c>
       <c r="O6">
-        <v>0.5989702197413518</v>
+        <v>0.5115352725808422</v>
       </c>
       <c r="P6">
-        <v>0.5989702197413518</v>
+        <v>0.5115352725808422</v>
       </c>
       <c r="Q6">
-        <v>0.3138098221848888</v>
+        <v>0.5976118714411112</v>
       </c>
       <c r="R6">
-        <v>2.824288399664</v>
+        <v>5.37850684297</v>
       </c>
       <c r="S6">
-        <v>0.0842044094411732</v>
+        <v>0.08313221411716663</v>
       </c>
       <c r="T6">
-        <v>0.08420440944117319</v>
+        <v>0.08313221411716663</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.6705973333333333</v>
+        <v>0.7305033333333334</v>
       </c>
       <c r="H7">
-        <v>2.011792</v>
+        <v>2.19151</v>
       </c>
       <c r="I7">
-        <v>0.1405819632861455</v>
+        <v>0.1625151159132014</v>
       </c>
       <c r="J7">
-        <v>0.1405819632861454</v>
+        <v>0.1625151159132014</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3133113333333333</v>
+        <v>0.7811863333333333</v>
       </c>
       <c r="N7">
-        <v>0.939934</v>
+        <v>2.343559</v>
       </c>
       <c r="O7">
-        <v>0.4010297802586483</v>
+        <v>0.4884647274191578</v>
       </c>
       <c r="P7">
-        <v>0.4010297802586483</v>
+        <v>0.4884647274191579</v>
       </c>
       <c r="Q7">
-        <v>0.2101057446364444</v>
+        <v>0.5706592204544445</v>
       </c>
       <c r="R7">
-        <v>1.890951701728</v>
+        <v>5.13593298409</v>
       </c>
       <c r="S7">
-        <v>0.05637755384497228</v>
+        <v>0.07938290179603476</v>
       </c>
       <c r="T7">
-        <v>0.05637755384497227</v>
+        <v>0.07938290179603476</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.9553923333333333</v>
+        <v>0.2733343333333333</v>
       </c>
       <c r="H8">
-        <v>2.866177</v>
+        <v>0.820003</v>
       </c>
       <c r="I8">
-        <v>0.2002855115168937</v>
+        <v>0.06080870385906196</v>
       </c>
       <c r="J8">
-        <v>0.2002855115168937</v>
+        <v>0.06080870385906197</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4679556666666667</v>
+        <v>0.8180823333333334</v>
       </c>
       <c r="N8">
-        <v>1.403867</v>
+        <v>2.454247</v>
       </c>
       <c r="O8">
-        <v>0.5989702197413518</v>
+        <v>0.5115352725808422</v>
       </c>
       <c r="P8">
-        <v>0.5989702197413518</v>
+        <v>0.5115352725808422</v>
       </c>
       <c r="Q8">
-        <v>0.4470812562732222</v>
+        <v>0.2236099891934445</v>
       </c>
       <c r="R8">
-        <v>4.023731306459</v>
+        <v>2.012489902741</v>
       </c>
       <c r="S8">
-        <v>0.1199650568442828</v>
+        <v>0.03110579690383297</v>
       </c>
       <c r="T8">
-        <v>0.1199650568442828</v>
+        <v>0.03110579690383297</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.9553923333333333</v>
+        <v>0.2733343333333333</v>
       </c>
       <c r="H9">
-        <v>2.866177</v>
+        <v>0.820003</v>
       </c>
       <c r="I9">
-        <v>0.2002855115168937</v>
+        <v>0.06080870385906196</v>
       </c>
       <c r="J9">
-        <v>0.2002855115168937</v>
+        <v>0.06080870385906197</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3133113333333333</v>
+        <v>0.7811863333333333</v>
       </c>
       <c r="N9">
-        <v>0.939934</v>
+        <v>2.343559</v>
       </c>
       <c r="O9">
-        <v>0.4010297802586483</v>
+        <v>0.4884647274191578</v>
       </c>
       <c r="P9">
-        <v>0.4010297802586483</v>
+        <v>0.4884647274191579</v>
       </c>
       <c r="Q9">
-        <v>0.2993352458131111</v>
+        <v>0.2135250456307778</v>
       </c>
       <c r="R9">
-        <v>2.694017212318</v>
+        <v>1.921725410677</v>
       </c>
       <c r="S9">
-        <v>0.08032045467261084</v>
+        <v>0.02970290695522899</v>
       </c>
       <c r="T9">
-        <v>0.08032045467261084</v>
+        <v>0.029702906955229</v>
       </c>
     </row>
   </sheetData>
